--- a/public/StructureDefinition-consent-exchange-related-person.xlsx
+++ b/public/StructureDefinition-consent-exchange-related-person.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mehi-ig.tranquildata.com/StructureDefinition/consent-exchange-related-person</t>
+    <t>http://consent-engine-ig.awatson.mitre.org/StructureDefinition/consent-exchange-related-person</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T11:26:17-06:00</t>
+    <t>2022-01-16T23:55:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -531,7 +531,7 @@
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
   </si>
   <si>
-    <t>http://mehi-ig.tranquildata.com/ValueSet/ConsentExchangeRelations</t>
+    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>code</t>
@@ -1098,14 +1098,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.5" customWidth="true" bestFit="true"/>
@@ -1122,7 +1122,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="52.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.55859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>

--- a/public/StructureDefinition-consent-exchange-related-person.xlsx
+++ b/public/StructureDefinition-consent-exchange-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:55:54-06:00</t>
+    <t>2022-01-18T09:56:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-consent-exchange-related-person.xlsx
+++ b/public/StructureDefinition-consent-exchange-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T09:56:03-06:00</t>
+    <t>2022-01-18T10:02:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-consent-exchange-related-person.xlsx
+++ b/public/StructureDefinition-consent-exchange-related-person.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:02:13-06:00</t>
+    <t>2022-01-18T10:08:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
